--- a/tests/pandas/operators/date_proximity/basic/merge_full_expected_result.xlsx
+++ b/tests/pandas/operators/date_proximity/basic/merge_full_expected_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/lavalinker/tests/pandas/operators/date_proximity/basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/date_proximity/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF779027-9D95-064F-9E1B-46DB8D0166A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CB9C4D-9E64-BF4A-8B1A-21F30CC140A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="8600" windowWidth="22980" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>PIDN_x</t>
   </si>
@@ -64,27 +64,12 @@
     <t>Col6_y</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>_diff_days</t>
-  </si>
-  <si>
-    <t>_abs_diff_days</t>
-  </si>
-  <si>
-    <t>_duplicates</t>
-  </si>
-  <si>
     <t>CDR</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>left_only</t>
-  </si>
-  <si>
     <t>FAQ</t>
   </si>
   <si>
@@ -95,6 +80,15 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>_mp_merge</t>
+  </si>
+  <si>
+    <t>_mp_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_abs_diff_days</t>
   </si>
 </sst>
 </file>
@@ -102,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,7 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,13 +471,12 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,19 +520,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -547,7 +537,7 @@
         <v>36892</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -556,19 +546,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -576,7 +560,7 @@
         <v>37289</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -585,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -597,7 +581,7 @@
         <v>37302</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>21</v>
@@ -606,13 +590,13 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P3">
         <v>13</v>
@@ -620,11 +604,8 @@
       <c r="Q3">
         <v>13</v>
       </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,7 +613,7 @@
         <v>37683</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -641,19 +622,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -661,7 +636,7 @@
         <v>38081</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -670,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -682,7 +657,7 @@
         <v>38078</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>23</v>
@@ -691,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N5">
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P5">
         <v>-3</v>
@@ -705,11 +680,8 @@
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -717,7 +689,7 @@
         <v>38081</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -726,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -738,7 +710,7 @@
         <v>38078</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>23</v>
@@ -747,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P6">
         <v>-3</v>
@@ -761,11 +733,8 @@
       <c r="Q6">
         <v>3</v>
       </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -773,7 +742,7 @@
         <v>38477</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -782,36 +751,24 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -819,7 +776,7 @@
         <v>38478</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>18</v>
@@ -828,19 +785,13 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -848,7 +799,7 @@
         <v>38874</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -857,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -869,7 +820,7 @@
         <v>38883</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K10">
         <v>26</v>
@@ -878,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -892,11 +843,8 @@
       <c r="Q10">
         <v>9</v>
       </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -904,7 +852,7 @@
         <v>39270</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -913,19 +861,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="O11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -933,7 +875,7 @@
         <v>39668</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>21</v>
@@ -942,24 +884,18 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -968,16 +904,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>2</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
